--- a/patch/patchList_protocolCore.xlsx
+++ b/patch/patchList_protocolCore.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcorbara\Documents\ArgoX3_API_Mobile_CORE\patch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC6A823-57CD-4EB3-94D0-2A3956F9B557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25437799-EF3C-46AF-ACF1-A367F65BC792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="5190" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
+    <sheet name="Core - patchList" sheetId="1" r:id="rId1"/>
+    <sheet name="Core- elem porting manuale" sheetId="2" r:id="rId2"/>
+    <sheet name="Local menu" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t>Note</t>
   </si>
@@ -40,13 +42,98 @@
   </si>
   <si>
     <t>Nome Patch (Core)</t>
+  </si>
+  <si>
+    <t>SRC_X3_V12_X_TRTC_V1_0</t>
+  </si>
+  <si>
+    <t>22.07.2025</t>
+  </si>
+  <si>
+    <t>Patch per  script core</t>
+  </si>
+  <si>
+    <t>Elemento X3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Codice elemento</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Screenshot</t>
+  </si>
+  <si>
+    <t>Note - Descrizione</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descrizione Menù </t>
+  </si>
+  <si>
+    <t>CHP X3Cloud</t>
+  </si>
+  <si>
+    <t>CHP Terremerse</t>
+  </si>
+  <si>
+    <t>CHP Piave</t>
+  </si>
+  <si>
+    <t>CHP Cloud 2024R2 v12</t>
+  </si>
+  <si>
+    <t>* ArgoX3 Mobile - Lettura campo</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">* </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Avere la premura di controllare il range delle numerazioni dei capitoli dedicati (vd Tab Local Menu)</t>
+    </r>
+  </si>
+  <si>
+    <t>YSCANMODE</t>
+  </si>
+  <si>
+    <t>YVISBLOC</t>
+  </si>
+  <si>
+    <t>YSENDAX3M</t>
+  </si>
+  <si>
+    <t>Campo  di tabella (AMSKZON)</t>
+  </si>
+  <si>
+    <t>Campo  di tabella (AMSK)</t>
+  </si>
+  <si>
+    <t>Campo  di tabella (ACTPAR)</t>
+  </si>
+  <si>
+    <t>Menù locale *</t>
+  </si>
+  <si>
+    <t>Campo di videata (AMK1)</t>
+  </si>
+  <si>
+    <t>Campo di videata (AMK2)</t>
+  </si>
+  <si>
+    <t>Campo di videata (ACT2)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -62,6 +149,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -71,7 +166,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -116,11 +211,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -130,6 +240,19 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -146,6 +269,583 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>104774</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>5337281</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>4210050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Immagine 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDB84BA4-FDD6-0312-DCF9-42999FFCCC22}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5314949" y="895349"/>
+          <a:ext cx="5232507" cy="4086226"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304801</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>5715000</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1094623</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Immagine 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDFE7891-FD08-A30C-CF22-4097A20E2156}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5514976" y="438150"/>
+          <a:ext cx="5410199" cy="1046998"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1209676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>5991225</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1506842</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Immagine 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E89054EC-4654-C8B3-68EA-5EDE71CDD351}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5457825" y="1600201"/>
+          <a:ext cx="5743575" cy="297166"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>323851</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>5038725</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1307308</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Immagine 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F0EBBA7-52F3-37DA-CA1D-C069C23462E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5534026" y="2209801"/>
+          <a:ext cx="4714874" cy="1202532"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1415694</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6200775</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1771744</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Immagine 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07E1A610-E553-A9A1-6FE4-98E248008F60}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5257800" y="3520719"/>
+          <a:ext cx="6153150" cy="356050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>371476</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>5876926</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1493400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Immagine 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82FA7F55-269F-F37A-75A5-B76D8BEE3E95}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5581651" y="4448176"/>
+          <a:ext cx="5505450" cy="1350524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>276226</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1740715</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>5876926</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>3010268</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Immagine 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{265CBA81-5190-8A07-AB37-F2722584BF86}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5486401" y="6046015"/>
+          <a:ext cx="5600700" cy="1269553"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6028778</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1438541</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Immagine 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22E50DDA-08CC-3048-B132-E575B892DDFC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5467350" y="7734300"/>
+          <a:ext cx="5771603" cy="1314716"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1743075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6614788</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>2305050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Immagine 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{705763E4-E1F1-ACEC-0B1F-75DFC7B89F05}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5286374" y="9353550"/>
+          <a:ext cx="6538589" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>5970274</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1448088</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Immagine 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DC1990E-BB19-08B8-D8AB-6BB524F2593A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5676900" y="10429875"/>
+          <a:ext cx="5503549" cy="1305213"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1800033</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6429375</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>2190859</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Immagine 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF00ED11-BC3C-9E0C-E02C-081235D79ECB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5448300" y="12087033"/>
+          <a:ext cx="6191250" cy="390826"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>143983</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>5857875</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1562363</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Immagine 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03F3100A-4F19-226C-5441-F9B6F474DF10}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5895975" y="13326583"/>
+          <a:ext cx="5172075" cy="1418380"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>285749</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>2232364</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>8191500</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>2722643</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Immagine 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14DB990C-464F-B2D5-BAC5-7B16945C61D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5495924" y="15414964"/>
+          <a:ext cx="7905751" cy="490279"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -411,10 +1111,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -443,7 +1143,184 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7687DBCF-A6D8-4CEA-905C-1653A0EEC1EC}">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="46.85546875" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="3" max="3" width="130.140625" customWidth="1"/>
+    <col min="4" max="4" width="73.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" spans="1:5" ht="173.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="1:5" ht="260.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="1:5" ht="210.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:5" ht="228" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="1:5" ht="277.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="1:5" ht="335.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C911D19C-0B41-4FDE-964A-0EDA8C996211}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="5" max="5" width="28.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3">
+        <v>6203</v>
+      </c>
+      <c r="C3">
+        <v>6911</v>
+      </c>
+      <c r="E3">
+        <v>6205</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>